--- a/etc/프로젝트관리.xlsx
+++ b/etc/프로젝트관리.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ai\lecNote\10_1stProject\etc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA82AD5-F41E-4347-AC3B-3B71C80BF774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D1DE1F-AA18-4C35-8CF0-781692A94D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{7B46E208-0403-4A73-820E-102697BCD046}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7B46E208-0403-4A73-820E-102697BCD046}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -838,43 +838,43 @@
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1201,9 +1201,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4BC5A88-849A-461A-B592-D3E595A4CEE0}">
   <dimension ref="B2:GA105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O10" sqref="O10:S10"/>
+      <selection pane="bottomLeft" activeCell="AU30" sqref="AU30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1290,90 +1290,90 @@
         <v>18</v>
       </c>
       <c r="D3" s="23"/>
-      <c r="E3" s="55" t="s">
+      <c r="E3" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="55" t="s">
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="55" t="s">
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="56"/>
-      <c r="S3" s="57"/>
-      <c r="T3" s="62" t="s">
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="52"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="U3" s="59"/>
-      <c r="V3" s="59"/>
-      <c r="W3" s="59"/>
-      <c r="X3" s="63"/>
-      <c r="Y3" s="62" t="s">
+      <c r="U3" s="56"/>
+      <c r="V3" s="56"/>
+      <c r="W3" s="56"/>
+      <c r="X3" s="57"/>
+      <c r="Y3" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="Z3" s="59"/>
-      <c r="AA3" s="59"/>
-      <c r="AB3" s="59"/>
-      <c r="AC3" s="63"/>
-      <c r="AD3" s="62" t="s">
+      <c r="Z3" s="56"/>
+      <c r="AA3" s="56"/>
+      <c r="AB3" s="56"/>
+      <c r="AC3" s="57"/>
+      <c r="AD3" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="AE3" s="59"/>
-      <c r="AF3" s="59"/>
-      <c r="AG3" s="59"/>
-      <c r="AH3" s="63"/>
-      <c r="AI3" s="55" t="s">
+      <c r="AE3" s="56"/>
+      <c r="AF3" s="56"/>
+      <c r="AG3" s="56"/>
+      <c r="AH3" s="57"/>
+      <c r="AI3" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="AJ3" s="56"/>
-      <c r="AK3" s="56"/>
-      <c r="AL3" s="56"/>
-      <c r="AM3" s="57"/>
-      <c r="AN3" s="55" t="s">
+      <c r="AJ3" s="52"/>
+      <c r="AK3" s="52"/>
+      <c r="AL3" s="52"/>
+      <c r="AM3" s="53"/>
+      <c r="AN3" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="AO3" s="56"/>
-      <c r="AP3" s="56"/>
-      <c r="AQ3" s="56"/>
-      <c r="AR3" s="57"/>
+      <c r="AO3" s="52"/>
+      <c r="AP3" s="52"/>
+      <c r="AQ3" s="52"/>
+      <c r="AR3" s="53"/>
       <c r="AS3" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="AT3" s="59"/>
-      <c r="AU3" s="59"/>
-      <c r="AV3" s="59"/>
-      <c r="AW3" s="60"/>
+      <c r="AT3" s="56"/>
+      <c r="AU3" s="56"/>
+      <c r="AV3" s="56"/>
+      <c r="AW3" s="59"/>
       <c r="AX3" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="AY3" s="59"/>
-      <c r="AZ3" s="59"/>
-      <c r="BA3" s="56"/>
-      <c r="BB3" s="57"/>
-      <c r="BC3" s="55" t="s">
+      <c r="AY3" s="56"/>
+      <c r="AZ3" s="56"/>
+      <c r="BA3" s="52"/>
+      <c r="BB3" s="53"/>
+      <c r="BC3" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="BD3" s="56"/>
-      <c r="BE3" s="56"/>
-      <c r="BF3" s="56"/>
-      <c r="BG3" s="57"/>
-      <c r="BH3" s="55" t="s">
+      <c r="BD3" s="52"/>
+      <c r="BE3" s="52"/>
+      <c r="BF3" s="52"/>
+      <c r="BG3" s="53"/>
+      <c r="BH3" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="BI3" s="56"/>
-      <c r="BJ3" s="56"/>
-      <c r="BK3" s="56"/>
-      <c r="BL3" s="57"/>
+      <c r="BI3" s="52"/>
+      <c r="BJ3" s="52"/>
+      <c r="BK3" s="52"/>
+      <c r="BL3" s="53"/>
       <c r="BM3" s="14"/>
       <c r="BN3" s="15"/>
     </row>
@@ -1597,7 +1597,7 @@
     </row>
     <row r="6" spans="2:183" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3"/>
-      <c r="C6" s="51" t="s">
+      <c r="C6" s="60" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="20"/>
@@ -1613,68 +1613,68 @@
     </row>
     <row r="7" spans="2:183" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3"/>
-      <c r="C7" s="51"/>
+      <c r="C7" s="60"/>
       <c r="D7" s="20"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="53"/>
-      <c r="R7" s="53"/>
-      <c r="S7" s="53"/>
-      <c r="T7" s="53"/>
-      <c r="U7" s="53"/>
-      <c r="V7" s="53"/>
-      <c r="W7" s="53"/>
-      <c r="X7" s="53"/>
-      <c r="Y7" s="53"/>
-      <c r="Z7" s="53"/>
-      <c r="AA7" s="53"/>
-      <c r="AB7" s="53"/>
-      <c r="AC7" s="53"/>
-      <c r="AD7" s="53"/>
-      <c r="AE7" s="53"/>
-      <c r="AF7" s="53"/>
-      <c r="AG7" s="53"/>
-      <c r="AH7" s="53"/>
-      <c r="AI7" s="53"/>
-      <c r="AJ7" s="53"/>
-      <c r="AK7" s="53"/>
-      <c r="AL7" s="53"/>
-      <c r="AM7" s="53"/>
-      <c r="AN7" s="53"/>
-      <c r="AO7" s="53"/>
-      <c r="AP7" s="53"/>
-      <c r="AQ7" s="53"/>
-      <c r="AR7" s="53"/>
-      <c r="AS7" s="53"/>
-      <c r="AT7" s="53"/>
-      <c r="AU7" s="53"/>
-      <c r="AV7" s="53"/>
-      <c r="AW7" s="53"/>
-      <c r="AX7" s="53"/>
-      <c r="AY7" s="53"/>
-      <c r="AZ7" s="53"/>
-      <c r="BA7" s="53"/>
-      <c r="BB7" s="53"/>
-      <c r="BC7" s="53"/>
-      <c r="BD7" s="53"/>
-      <c r="BE7" s="53"/>
-      <c r="BF7" s="53"/>
-      <c r="BG7" s="53"/>
-      <c r="BH7" s="53"/>
-      <c r="BI7" s="53"/>
-      <c r="BJ7" s="53"/>
-      <c r="BK7" s="53"/>
-      <c r="BL7" s="53"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="61"/>
+      <c r="N7" s="61"/>
+      <c r="O7" s="61"/>
+      <c r="P7" s="61"/>
+      <c r="Q7" s="61"/>
+      <c r="R7" s="61"/>
+      <c r="S7" s="61"/>
+      <c r="T7" s="61"/>
+      <c r="U7" s="61"/>
+      <c r="V7" s="61"/>
+      <c r="W7" s="61"/>
+      <c r="X7" s="61"/>
+      <c r="Y7" s="61"/>
+      <c r="Z7" s="61"/>
+      <c r="AA7" s="61"/>
+      <c r="AB7" s="61"/>
+      <c r="AC7" s="61"/>
+      <c r="AD7" s="61"/>
+      <c r="AE7" s="61"/>
+      <c r="AF7" s="61"/>
+      <c r="AG7" s="61"/>
+      <c r="AH7" s="61"/>
+      <c r="AI7" s="61"/>
+      <c r="AJ7" s="61"/>
+      <c r="AK7" s="61"/>
+      <c r="AL7" s="61"/>
+      <c r="AM7" s="61"/>
+      <c r="AN7" s="61"/>
+      <c r="AO7" s="61"/>
+      <c r="AP7" s="61"/>
+      <c r="AQ7" s="61"/>
+      <c r="AR7" s="61"/>
+      <c r="AS7" s="61"/>
+      <c r="AT7" s="61"/>
+      <c r="AU7" s="61"/>
+      <c r="AV7" s="61"/>
+      <c r="AW7" s="61"/>
+      <c r="AX7" s="61"/>
+      <c r="AY7" s="61"/>
+      <c r="AZ7" s="61"/>
+      <c r="BA7" s="61"/>
+      <c r="BB7" s="61"/>
+      <c r="BC7" s="61"/>
+      <c r="BD7" s="61"/>
+      <c r="BE7" s="61"/>
+      <c r="BF7" s="61"/>
+      <c r="BG7" s="61"/>
+      <c r="BH7" s="61"/>
+      <c r="BI7" s="61"/>
+      <c r="BJ7" s="61"/>
+      <c r="BK7" s="61"/>
+      <c r="BL7" s="61"/>
       <c r="BN7" s="4"/>
       <c r="BP7" s="47" t="s">
         <v>21</v>
@@ -1708,7 +1708,7 @@
     </row>
     <row r="9" spans="2:183" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="3"/>
-      <c r="C9" s="51" t="s">
+      <c r="C9" s="60" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="20"/>
@@ -1726,68 +1726,68 @@
     </row>
     <row r="10" spans="2:183" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="3"/>
-      <c r="C10" s="51"/>
+      <c r="C10" s="60"/>
       <c r="D10" s="20"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="53"/>
-      <c r="Q10" s="53"/>
-      <c r="R10" s="53"/>
-      <c r="S10" s="53"/>
-      <c r="T10" s="53"/>
-      <c r="U10" s="53"/>
-      <c r="V10" s="53"/>
-      <c r="W10" s="53"/>
-      <c r="X10" s="53"/>
-      <c r="Y10" s="53"/>
-      <c r="Z10" s="53"/>
-      <c r="AA10" s="53"/>
-      <c r="AB10" s="53"/>
-      <c r="AC10" s="53"/>
-      <c r="AD10" s="53"/>
-      <c r="AE10" s="53"/>
-      <c r="AF10" s="53"/>
-      <c r="AG10" s="53"/>
-      <c r="AH10" s="53"/>
-      <c r="AI10" s="53"/>
-      <c r="AJ10" s="53"/>
-      <c r="AK10" s="53"/>
-      <c r="AL10" s="53"/>
-      <c r="AM10" s="53"/>
-      <c r="AN10" s="53"/>
-      <c r="AO10" s="53"/>
-      <c r="AP10" s="53"/>
-      <c r="AQ10" s="53"/>
-      <c r="AR10" s="53"/>
-      <c r="AS10" s="53"/>
-      <c r="AT10" s="53"/>
-      <c r="AU10" s="53"/>
-      <c r="AV10" s="53"/>
-      <c r="AW10" s="53"/>
-      <c r="AX10" s="53"/>
-      <c r="AY10" s="53"/>
-      <c r="AZ10" s="53"/>
-      <c r="BA10" s="53"/>
-      <c r="BB10" s="53"/>
-      <c r="BC10" s="53"/>
-      <c r="BD10" s="53"/>
-      <c r="BE10" s="53"/>
-      <c r="BF10" s="53"/>
-      <c r="BG10" s="53"/>
-      <c r="BH10" s="53"/>
-      <c r="BI10" s="53"/>
-      <c r="BJ10" s="53"/>
-      <c r="BK10" s="53"/>
-      <c r="BL10" s="53"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="61"/>
+      <c r="N10" s="61"/>
+      <c r="O10" s="61"/>
+      <c r="P10" s="61"/>
+      <c r="Q10" s="61"/>
+      <c r="R10" s="61"/>
+      <c r="S10" s="61"/>
+      <c r="T10" s="61"/>
+      <c r="U10" s="61"/>
+      <c r="V10" s="61"/>
+      <c r="W10" s="61"/>
+      <c r="X10" s="61"/>
+      <c r="Y10" s="61"/>
+      <c r="Z10" s="61"/>
+      <c r="AA10" s="61"/>
+      <c r="AB10" s="61"/>
+      <c r="AC10" s="61"/>
+      <c r="AD10" s="61"/>
+      <c r="AE10" s="61"/>
+      <c r="AF10" s="61"/>
+      <c r="AG10" s="61"/>
+      <c r="AH10" s="61"/>
+      <c r="AI10" s="61"/>
+      <c r="AJ10" s="61"/>
+      <c r="AK10" s="61"/>
+      <c r="AL10" s="61"/>
+      <c r="AM10" s="61"/>
+      <c r="AN10" s="61"/>
+      <c r="AO10" s="61"/>
+      <c r="AP10" s="61"/>
+      <c r="AQ10" s="61"/>
+      <c r="AR10" s="61"/>
+      <c r="AS10" s="61"/>
+      <c r="AT10" s="61"/>
+      <c r="AU10" s="61"/>
+      <c r="AV10" s="61"/>
+      <c r="AW10" s="61"/>
+      <c r="AX10" s="61"/>
+      <c r="AY10" s="61"/>
+      <c r="AZ10" s="61"/>
+      <c r="BA10" s="61"/>
+      <c r="BB10" s="61"/>
+      <c r="BC10" s="61"/>
+      <c r="BD10" s="61"/>
+      <c r="BE10" s="61"/>
+      <c r="BF10" s="61"/>
+      <c r="BG10" s="61"/>
+      <c r="BH10" s="61"/>
+      <c r="BI10" s="61"/>
+      <c r="BJ10" s="61"/>
+      <c r="BK10" s="61"/>
+      <c r="BL10" s="61"/>
       <c r="BN10" s="4"/>
       <c r="BP10" s="50" t="s">
         <v>24</v>
@@ -1830,7 +1830,7 @@
     </row>
     <row r="12" spans="2:183" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="3"/>
-      <c r="C12" s="51" t="s">
+      <c r="C12" s="60" t="s">
         <v>15</v>
       </c>
       <c r="D12" s="20"/>
@@ -1863,68 +1863,68 @@
     </row>
     <row r="13" spans="2:183" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="3"/>
-      <c r="C13" s="51"/>
+      <c r="C13" s="60"/>
       <c r="D13" s="20"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="53"/>
-      <c r="O13" s="53"/>
-      <c r="P13" s="53"/>
-      <c r="Q13" s="53"/>
-      <c r="R13" s="53"/>
-      <c r="S13" s="53"/>
-      <c r="T13" s="53"/>
-      <c r="U13" s="53"/>
-      <c r="V13" s="53"/>
-      <c r="W13" s="53"/>
-      <c r="X13" s="53"/>
-      <c r="Y13" s="53"/>
-      <c r="Z13" s="53"/>
-      <c r="AA13" s="53"/>
-      <c r="AB13" s="53"/>
-      <c r="AC13" s="53"/>
-      <c r="AD13" s="53"/>
-      <c r="AE13" s="53"/>
-      <c r="AF13" s="53"/>
-      <c r="AG13" s="53"/>
-      <c r="AH13" s="53"/>
-      <c r="AI13" s="53"/>
-      <c r="AJ13" s="53"/>
-      <c r="AK13" s="53"/>
-      <c r="AL13" s="53"/>
-      <c r="AM13" s="53"/>
-      <c r="AN13" s="53"/>
-      <c r="AO13" s="53"/>
-      <c r="AP13" s="53"/>
-      <c r="AQ13" s="53"/>
-      <c r="AR13" s="53"/>
-      <c r="AS13" s="53"/>
-      <c r="AT13" s="53"/>
-      <c r="AU13" s="53"/>
-      <c r="AV13" s="53"/>
-      <c r="AW13" s="53"/>
-      <c r="AX13" s="53"/>
-      <c r="AY13" s="53"/>
-      <c r="AZ13" s="53"/>
-      <c r="BA13" s="53"/>
-      <c r="BB13" s="53"/>
-      <c r="BC13" s="53"/>
-      <c r="BD13" s="53"/>
-      <c r="BE13" s="53"/>
-      <c r="BF13" s="53"/>
-      <c r="BG13" s="53"/>
-      <c r="BH13" s="53"/>
-      <c r="BI13" s="53"/>
-      <c r="BJ13" s="53"/>
-      <c r="BK13" s="53"/>
-      <c r="BL13" s="53"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="61"/>
+      <c r="P13" s="61"/>
+      <c r="Q13" s="61"/>
+      <c r="R13" s="61"/>
+      <c r="S13" s="61"/>
+      <c r="T13" s="61"/>
+      <c r="U13" s="61"/>
+      <c r="V13" s="61"/>
+      <c r="W13" s="61"/>
+      <c r="X13" s="61"/>
+      <c r="Y13" s="61"/>
+      <c r="Z13" s="61"/>
+      <c r="AA13" s="61"/>
+      <c r="AB13" s="61"/>
+      <c r="AC13" s="61"/>
+      <c r="AD13" s="61"/>
+      <c r="AE13" s="61"/>
+      <c r="AF13" s="61"/>
+      <c r="AG13" s="61"/>
+      <c r="AH13" s="61"/>
+      <c r="AI13" s="61"/>
+      <c r="AJ13" s="61"/>
+      <c r="AK13" s="61"/>
+      <c r="AL13" s="61"/>
+      <c r="AM13" s="61"/>
+      <c r="AN13" s="61"/>
+      <c r="AO13" s="61"/>
+      <c r="AP13" s="61"/>
+      <c r="AQ13" s="61"/>
+      <c r="AR13" s="61"/>
+      <c r="AS13" s="61"/>
+      <c r="AT13" s="61"/>
+      <c r="AU13" s="61"/>
+      <c r="AV13" s="61"/>
+      <c r="AW13" s="61"/>
+      <c r="AX13" s="61"/>
+      <c r="AY13" s="61"/>
+      <c r="AZ13" s="61"/>
+      <c r="BA13" s="61"/>
+      <c r="BB13" s="61"/>
+      <c r="BC13" s="61"/>
+      <c r="BD13" s="61"/>
+      <c r="BE13" s="61"/>
+      <c r="BF13" s="61"/>
+      <c r="BG13" s="61"/>
+      <c r="BH13" s="61"/>
+      <c r="BI13" s="61"/>
+      <c r="BJ13" s="61"/>
+      <c r="BK13" s="61"/>
+      <c r="BL13" s="61"/>
       <c r="BN13" s="4"/>
     </row>
     <row r="14" spans="2:183" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -1935,7 +1935,7 @@
     </row>
     <row r="15" spans="2:183" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="3"/>
-      <c r="C15" s="51" t="s">
+      <c r="C15" s="60" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="20"/>
@@ -1948,68 +1948,68 @@
     </row>
     <row r="16" spans="2:183" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="3"/>
-      <c r="C16" s="51"/>
+      <c r="C16" s="60"/>
       <c r="D16" s="20"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="53"/>
-      <c r="O16" s="53"/>
-      <c r="P16" s="53"/>
-      <c r="Q16" s="53"/>
-      <c r="R16" s="53"/>
-      <c r="S16" s="53"/>
-      <c r="T16" s="53"/>
-      <c r="U16" s="53"/>
-      <c r="V16" s="53"/>
-      <c r="W16" s="53"/>
-      <c r="X16" s="53"/>
-      <c r="Y16" s="53"/>
-      <c r="Z16" s="53"/>
-      <c r="AA16" s="53"/>
-      <c r="AB16" s="53"/>
-      <c r="AC16" s="53"/>
-      <c r="AD16" s="53"/>
-      <c r="AE16" s="53"/>
-      <c r="AF16" s="53"/>
-      <c r="AG16" s="53"/>
-      <c r="AH16" s="53"/>
-      <c r="AI16" s="53"/>
-      <c r="AJ16" s="53"/>
-      <c r="AK16" s="53"/>
-      <c r="AL16" s="53"/>
-      <c r="AM16" s="53"/>
-      <c r="AN16" s="53"/>
-      <c r="AO16" s="53"/>
-      <c r="AP16" s="53"/>
-      <c r="AQ16" s="53"/>
-      <c r="AR16" s="53"/>
-      <c r="AS16" s="53"/>
-      <c r="AT16" s="53"/>
-      <c r="AU16" s="53"/>
-      <c r="AV16" s="53"/>
-      <c r="AW16" s="53"/>
-      <c r="AX16" s="53"/>
-      <c r="AY16" s="53"/>
-      <c r="AZ16" s="53"/>
-      <c r="BA16" s="53"/>
-      <c r="BB16" s="53"/>
-      <c r="BC16" s="53"/>
-      <c r="BD16" s="53"/>
-      <c r="BE16" s="53"/>
-      <c r="BF16" s="53"/>
-      <c r="BG16" s="53"/>
-      <c r="BH16" s="53"/>
-      <c r="BI16" s="53"/>
-      <c r="BJ16" s="53"/>
-      <c r="BK16" s="53"/>
-      <c r="BL16" s="53"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="61"/>
+      <c r="L16" s="61"/>
+      <c r="M16" s="61"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="61"/>
+      <c r="P16" s="61"/>
+      <c r="Q16" s="61"/>
+      <c r="R16" s="61"/>
+      <c r="S16" s="61"/>
+      <c r="T16" s="61"/>
+      <c r="U16" s="61"/>
+      <c r="V16" s="61"/>
+      <c r="W16" s="61"/>
+      <c r="X16" s="61"/>
+      <c r="Y16" s="61"/>
+      <c r="Z16" s="61"/>
+      <c r="AA16" s="61"/>
+      <c r="AB16" s="61"/>
+      <c r="AC16" s="61"/>
+      <c r="AD16" s="61"/>
+      <c r="AE16" s="61"/>
+      <c r="AF16" s="61"/>
+      <c r="AG16" s="61"/>
+      <c r="AH16" s="61"/>
+      <c r="AI16" s="61"/>
+      <c r="AJ16" s="61"/>
+      <c r="AK16" s="61"/>
+      <c r="AL16" s="61"/>
+      <c r="AM16" s="61"/>
+      <c r="AN16" s="61"/>
+      <c r="AO16" s="61"/>
+      <c r="AP16" s="61"/>
+      <c r="AQ16" s="61"/>
+      <c r="AR16" s="61"/>
+      <c r="AS16" s="61"/>
+      <c r="AT16" s="61"/>
+      <c r="AU16" s="61"/>
+      <c r="AV16" s="61"/>
+      <c r="AW16" s="61"/>
+      <c r="AX16" s="61"/>
+      <c r="AY16" s="61"/>
+      <c r="AZ16" s="61"/>
+      <c r="BA16" s="61"/>
+      <c r="BB16" s="61"/>
+      <c r="BC16" s="61"/>
+      <c r="BD16" s="61"/>
+      <c r="BE16" s="61"/>
+      <c r="BF16" s="61"/>
+      <c r="BG16" s="61"/>
+      <c r="BH16" s="61"/>
+      <c r="BI16" s="61"/>
+      <c r="BJ16" s="61"/>
+      <c r="BK16" s="61"/>
+      <c r="BL16" s="61"/>
       <c r="BN16" s="4"/>
     </row>
     <row r="17" spans="2:66" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -2028,7 +2028,7 @@
     </row>
     <row r="19" spans="2:66" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="3"/>
-      <c r="C19" s="51" t="s">
+      <c r="C19" s="60" t="s">
         <v>17</v>
       </c>
       <c r="D19" s="20"/>
@@ -2041,13 +2041,13 @@
     </row>
     <row r="20" spans="2:66" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="3"/>
-      <c r="C20" s="51"/>
+      <c r="C20" s="60"/>
       <c r="D20" s="20"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="53"/>
-      <c r="N20" s="53"/>
+      <c r="J20" s="61"/>
+      <c r="K20" s="61"/>
+      <c r="L20" s="61"/>
+      <c r="M20" s="61"/>
+      <c r="N20" s="61"/>
       <c r="BN20" s="4"/>
     </row>
     <row r="21" spans="2:66" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -2066,7 +2066,7 @@
     </row>
     <row r="23" spans="2:66" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="3"/>
-      <c r="C23" s="51" t="s">
+      <c r="C23" s="60" t="s">
         <v>25</v>
       </c>
       <c r="D23" s="20"/>
@@ -2089,7 +2089,7 @@
     </row>
     <row r="24" spans="2:66" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="3"/>
-      <c r="C24" s="51"/>
+      <c r="C24" s="60"/>
       <c r="D24" s="20"/>
       <c r="BN24" s="4"/>
     </row>
@@ -2101,7 +2101,7 @@
     </row>
     <row r="26" spans="2:66" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="3"/>
-      <c r="C26" s="51" t="s">
+      <c r="C26" s="60" t="s">
         <v>26</v>
       </c>
       <c r="D26" s="20"/>
@@ -2124,7 +2124,7 @@
     </row>
     <row r="27" spans="2:66" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="3"/>
-      <c r="C27" s="51"/>
+      <c r="C27" s="60"/>
       <c r="D27" s="20"/>
       <c r="BN27" s="4"/>
     </row>
@@ -2136,7 +2136,7 @@
     </row>
     <row r="29" spans="2:66" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="3"/>
-      <c r="C29" s="51" t="s">
+      <c r="C29" s="60" t="s">
         <v>27</v>
       </c>
       <c r="D29" s="20"/>
@@ -2159,7 +2159,7 @@
     </row>
     <row r="30" spans="2:66" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="3"/>
-      <c r="C30" s="51"/>
+      <c r="C30" s="60"/>
       <c r="D30" s="20"/>
       <c r="BN30" s="4"/>
     </row>
@@ -2179,7 +2179,7 @@
     </row>
     <row r="33" spans="2:66" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="3"/>
-      <c r="C33" s="51" t="s">
+      <c r="C33" s="60" t="s">
         <v>31</v>
       </c>
       <c r="D33" s="20"/>
@@ -2197,7 +2197,7 @@
     </row>
     <row r="34" spans="2:66" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="3"/>
-      <c r="C34" s="51"/>
+      <c r="C34" s="60"/>
       <c r="D34" s="20"/>
       <c r="BN34" s="4"/>
     </row>
@@ -2209,7 +2209,7 @@
     </row>
     <row r="36" spans="2:66" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="3"/>
-      <c r="C36" s="51" t="s">
+      <c r="C36" s="60" t="s">
         <v>30</v>
       </c>
       <c r="D36" s="20"/>
@@ -2227,7 +2227,7 @@
     </row>
     <row r="37" spans="2:66" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="3"/>
-      <c r="C37" s="51"/>
+      <c r="C37" s="60"/>
       <c r="D37" s="20"/>
       <c r="BN37" s="4"/>
     </row>
@@ -2247,7 +2247,7 @@
     </row>
     <row r="40" spans="2:66" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="3"/>
-      <c r="C40" s="51" t="s">
+      <c r="C40" s="60" t="s">
         <v>33</v>
       </c>
       <c r="D40" s="20"/>
@@ -2268,7 +2268,7 @@
     </row>
     <row r="41" spans="2:66" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="3"/>
-      <c r="C41" s="51"/>
+      <c r="C41" s="60"/>
       <c r="D41" s="20"/>
       <c r="BN41" s="4"/>
     </row>
@@ -2280,7 +2280,7 @@
     </row>
     <row r="43" spans="2:66" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="3"/>
-      <c r="C43" s="51" t="s">
+      <c r="C43" s="60" t="s">
         <v>34</v>
       </c>
       <c r="D43" s="20"/>
@@ -2298,7 +2298,7 @@
     </row>
     <row r="44" spans="2:66" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="3"/>
-      <c r="C44" s="51"/>
+      <c r="C44" s="60"/>
       <c r="D44" s="20"/>
       <c r="BN44" s="4"/>
     </row>
@@ -2318,7 +2318,7 @@
     </row>
     <row r="47" spans="2:66" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="3"/>
-      <c r="C47" s="52" t="s">
+      <c r="C47" s="63" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="20"/>
@@ -2336,7 +2336,7 @@
     </row>
     <row r="48" spans="2:66" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="3"/>
-      <c r="C48" s="52"/>
+      <c r="C48" s="63"/>
       <c r="D48" s="20"/>
       <c r="BN48" s="4"/>
     </row>
@@ -2348,7 +2348,7 @@
     </row>
     <row r="50" spans="2:66" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="3"/>
-      <c r="C50" s="52" t="s">
+      <c r="C50" s="63" t="s">
         <v>40</v>
       </c>
       <c r="D50" s="20"/>
@@ -2366,7 +2366,7 @@
     </row>
     <row r="51" spans="2:66" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="3"/>
-      <c r="C51" s="52"/>
+      <c r="C51" s="63"/>
       <c r="D51" s="20"/>
       <c r="BN51" s="4"/>
     </row>
@@ -2378,7 +2378,7 @@
     </row>
     <row r="53" spans="2:66" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="3"/>
-      <c r="C53" s="52" t="s">
+      <c r="C53" s="63" t="s">
         <v>41</v>
       </c>
       <c r="D53" s="20"/>
@@ -2396,7 +2396,7 @@
     </row>
     <row r="54" spans="2:66" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54" s="3"/>
-      <c r="C54" s="52"/>
+      <c r="C54" s="63"/>
       <c r="D54" s="20"/>
       <c r="BN54" s="4"/>
     </row>
@@ -2416,7 +2416,7 @@
     </row>
     <row r="57" spans="2:66" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57" s="3"/>
-      <c r="C57" s="52" t="s">
+      <c r="C57" s="63" t="s">
         <v>37</v>
       </c>
       <c r="D57" s="20"/>
@@ -2434,7 +2434,7 @@
     </row>
     <row r="58" spans="2:66" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58" s="3"/>
-      <c r="C58" s="52"/>
+      <c r="C58" s="63"/>
       <c r="D58" s="20"/>
       <c r="BN58" s="4"/>
     </row>
@@ -2446,7 +2446,7 @@
     </row>
     <row r="60" spans="2:66" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B60" s="3"/>
-      <c r="C60" s="52" t="s">
+      <c r="C60" s="63" t="s">
         <v>38</v>
       </c>
       <c r="D60" s="20"/>
@@ -2459,7 +2459,7 @@
     </row>
     <row r="61" spans="2:66" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B61" s="3"/>
-      <c r="C61" s="52"/>
+      <c r="C61" s="63"/>
       <c r="D61" s="20"/>
       <c r="BN61" s="4"/>
     </row>
@@ -2531,11 +2531,11 @@
       <c r="BN62" s="8"/>
     </row>
     <row r="63" spans="2:66" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C63" s="51"/>
+      <c r="C63" s="60"/>
       <c r="D63" s="2"/>
     </row>
     <row r="64" spans="2:66" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C64" s="51"/>
+      <c r="C64" s="60"/>
       <c r="D64" s="2"/>
     </row>
     <row r="65" spans="3:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -2543,11 +2543,11 @@
       <c r="D65" s="1"/>
     </row>
     <row r="66" spans="3:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C66" s="51"/>
+      <c r="C66" s="60"/>
       <c r="D66" s="2"/>
     </row>
     <row r="67" spans="3:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C67" s="51"/>
+      <c r="C67" s="60"/>
       <c r="D67" s="2"/>
     </row>
     <row r="68" spans="3:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -2555,11 +2555,11 @@
       <c r="D68" s="1"/>
     </row>
     <row r="69" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C69" s="51"/>
+      <c r="C69" s="60"/>
       <c r="D69" s="2"/>
     </row>
     <row r="70" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C70" s="51"/>
+      <c r="C70" s="60"/>
       <c r="D70" s="2"/>
     </row>
     <row r="71" spans="3:4" x14ac:dyDescent="0.3">
@@ -2567,11 +2567,11 @@
       <c r="D71" s="1"/>
     </row>
     <row r="72" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C72" s="51"/>
+      <c r="C72" s="60"/>
       <c r="D72" s="2"/>
     </row>
     <row r="73" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C73" s="51"/>
+      <c r="C73" s="60"/>
       <c r="D73" s="2"/>
     </row>
     <row r="74" spans="3:4" x14ac:dyDescent="0.3">
@@ -2579,11 +2579,11 @@
       <c r="D74" s="1"/>
     </row>
     <row r="75" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C75" s="51"/>
+      <c r="C75" s="60"/>
       <c r="D75" s="2"/>
     </row>
     <row r="76" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C76" s="51"/>
+      <c r="C76" s="60"/>
       <c r="D76" s="2"/>
     </row>
     <row r="77" spans="3:4" x14ac:dyDescent="0.3">
@@ -2591,11 +2591,11 @@
       <c r="D77" s="1"/>
     </row>
     <row r="78" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C78" s="51"/>
+      <c r="C78" s="60"/>
       <c r="D78" s="2"/>
     </row>
     <row r="79" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C79" s="51"/>
+      <c r="C79" s="60"/>
       <c r="D79" s="2"/>
     </row>
     <row r="80" spans="3:4" x14ac:dyDescent="0.3">
@@ -2603,11 +2603,11 @@
       <c r="D80" s="1"/>
     </row>
     <row r="81" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C81" s="51"/>
+      <c r="C81" s="60"/>
       <c r="D81" s="2"/>
     </row>
     <row r="82" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C82" s="51"/>
+      <c r="C82" s="60"/>
       <c r="D82" s="2"/>
     </row>
     <row r="83" spans="3:4" x14ac:dyDescent="0.3">
@@ -2615,11 +2615,11 @@
       <c r="D83" s="1"/>
     </row>
     <row r="84" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C84" s="51"/>
+      <c r="C84" s="60"/>
       <c r="D84" s="2"/>
     </row>
     <row r="85" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C85" s="51"/>
+      <c r="C85" s="60"/>
       <c r="D85" s="2"/>
     </row>
     <row r="86" spans="3:4" x14ac:dyDescent="0.3">
@@ -2627,11 +2627,11 @@
       <c r="D86" s="1"/>
     </row>
     <row r="87" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C87" s="51"/>
+      <c r="C87" s="60"/>
       <c r="D87" s="2"/>
     </row>
     <row r="88" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C88" s="51"/>
+      <c r="C88" s="60"/>
       <c r="D88" s="2"/>
     </row>
     <row r="89" spans="3:4" x14ac:dyDescent="0.3">
@@ -2639,11 +2639,11 @@
       <c r="D89" s="1"/>
     </row>
     <row r="90" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C90" s="51"/>
+      <c r="C90" s="60"/>
       <c r="D90" s="2"/>
     </row>
     <row r="91" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C91" s="51"/>
+      <c r="C91" s="60"/>
       <c r="D91" s="2"/>
     </row>
     <row r="92" spans="3:4" x14ac:dyDescent="0.3">
@@ -2704,6 +2704,82 @@
     </row>
   </sheetData>
   <mergeCells count="88">
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="AI16:AM16"/>
+    <mergeCell ref="AN16:AR16"/>
+    <mergeCell ref="AS16:AW16"/>
+    <mergeCell ref="AX16:BB16"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="J20:N20"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="BC16:BG16"/>
+    <mergeCell ref="BH16:BL16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:N16"/>
+    <mergeCell ref="O16:S16"/>
+    <mergeCell ref="T16:X16"/>
+    <mergeCell ref="Y16:AC16"/>
+    <mergeCell ref="AD16:AH16"/>
+    <mergeCell ref="BH13:BL13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:N13"/>
+    <mergeCell ref="O13:S13"/>
+    <mergeCell ref="T13:X13"/>
+    <mergeCell ref="Y13:AC13"/>
+    <mergeCell ref="AD13:AH13"/>
+    <mergeCell ref="AI13:AM13"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AS13:AW13"/>
+    <mergeCell ref="AX13:BB13"/>
+    <mergeCell ref="BC13:BG13"/>
+    <mergeCell ref="BH10:BL10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:N10"/>
+    <mergeCell ref="O10:S10"/>
+    <mergeCell ref="T10:X10"/>
+    <mergeCell ref="Y10:AC10"/>
+    <mergeCell ref="AD10:AH10"/>
+    <mergeCell ref="AI10:AM10"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AS10:AW10"/>
+    <mergeCell ref="AX10:BB10"/>
+    <mergeCell ref="BC10:BG10"/>
+    <mergeCell ref="BH7:BL7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:N7"/>
+    <mergeCell ref="O7:S7"/>
+    <mergeCell ref="T7:X7"/>
+    <mergeCell ref="Y7:AC7"/>
+    <mergeCell ref="AD7:AH7"/>
+    <mergeCell ref="AI7:AM7"/>
+    <mergeCell ref="AN7:AR7"/>
+    <mergeCell ref="AS7:AW7"/>
+    <mergeCell ref="AX7:BB7"/>
+    <mergeCell ref="BC7:BG7"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C19:C20"/>
     <mergeCell ref="BH3:BL3"/>
     <mergeCell ref="E3:I3"/>
     <mergeCell ref="J3:N3"/>
@@ -2716,82 +2792,6 @@
     <mergeCell ref="AS3:AW3"/>
     <mergeCell ref="AX3:BB3"/>
     <mergeCell ref="BC3:BG3"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="BH7:BL7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:N7"/>
-    <mergeCell ref="O7:S7"/>
-    <mergeCell ref="T7:X7"/>
-    <mergeCell ref="Y7:AC7"/>
-    <mergeCell ref="AD7:AH7"/>
-    <mergeCell ref="AI7:AM7"/>
-    <mergeCell ref="AN7:AR7"/>
-    <mergeCell ref="AS7:AW7"/>
-    <mergeCell ref="AX7:BB7"/>
-    <mergeCell ref="BC7:BG7"/>
-    <mergeCell ref="BH10:BL10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:N10"/>
-    <mergeCell ref="O10:S10"/>
-    <mergeCell ref="T10:X10"/>
-    <mergeCell ref="Y10:AC10"/>
-    <mergeCell ref="AD10:AH10"/>
-    <mergeCell ref="AI10:AM10"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AS10:AW10"/>
-    <mergeCell ref="AX10:BB10"/>
-    <mergeCell ref="BC10:BG10"/>
-    <mergeCell ref="BH13:BL13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:N13"/>
-    <mergeCell ref="O13:S13"/>
-    <mergeCell ref="T13:X13"/>
-    <mergeCell ref="Y13:AC13"/>
-    <mergeCell ref="AD13:AH13"/>
-    <mergeCell ref="AI13:AM13"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AS13:AW13"/>
-    <mergeCell ref="AX13:BB13"/>
-    <mergeCell ref="BC13:BG13"/>
-    <mergeCell ref="BC16:BG16"/>
-    <mergeCell ref="BH16:BL16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:N16"/>
-    <mergeCell ref="O16:S16"/>
-    <mergeCell ref="T16:X16"/>
-    <mergeCell ref="Y16:AC16"/>
-    <mergeCell ref="AD16:AH16"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="AI16:AM16"/>
-    <mergeCell ref="AN16:AR16"/>
-    <mergeCell ref="AS16:AW16"/>
-    <mergeCell ref="AX16:BB16"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="J20:N20"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="C50:C51"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
